--- a/testcases/tc_signin.xlsx
+++ b/testcases/tc_signin.xlsx
@@ -291,7 +291,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -303,17 +309,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,31 +636,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -668,30 +668,30 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -700,60 +700,60 @@
       <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="10"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="10"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -762,60 +762,60 @@
       <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="10"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="10"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -824,60 +824,60 @@
       <c r="G10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="10"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="10"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -886,60 +886,60 @@
       <c r="G13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="10"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="10"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -948,60 +948,60 @@
       <c r="G16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="10"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="2:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="10"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1010,60 +1010,60 @@
       <c r="G19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="10"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="10"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1072,60 +1072,60 @@
       <c r="G22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="10"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="10"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1134,59 +1134,100 @@
       <c r="G25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="10"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="2:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="10"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="H16:H18"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:J21"/>
     <mergeCell ref="K19:K21"/>
@@ -1203,55 +1244,14 @@
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="H25:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
